--- a/数据整理/stocks/A股/深证主板/002129-中环股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002129-中环股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3298,7 +3299,6 @@
           <t>广发鑫源灵活配置混合C</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
           <t>70.32</t>
@@ -3330,7 +3330,6 @@
           <t>华夏新锦绣灵活配置混合C</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
           <t>71.87</t>
@@ -3346,6 +3345,3592 @@
       </c>
       <c r="H37" t="n">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H94"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>162.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.3360</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515790</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>73.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.3435</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>900022</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7354</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>900052</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>79.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5154</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>590002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮核心成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>57.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5084</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>110010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达价值成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>53.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3161</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>900003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>64.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0885</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011102</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0004</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010662</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>60.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.9143</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>516880</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.6971</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010966</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国成长领航混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>60.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5527</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011103</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.5318</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>34.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3495</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001702</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方创新科技混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0115</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0081</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001224</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中邮新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9652</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>900079</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6875</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>900009</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6295</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>69.05</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6177</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>516160</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方中证新能源ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>18.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6153</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>512580</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发中证环保产业ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>19.59</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5975</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5795</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009913</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中信保诚成长动力混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5402</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002620</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中邮未来新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.84</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>69.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4866</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010284</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>22.64</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>56.82</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4596</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159857</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3994</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3711</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008308</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏见龙精选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3671</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008980</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3089</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>97.06</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2913</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2567</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2534</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>515580</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证科技100ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2214</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>900152</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>73.00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2076</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>78.46</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1930</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>516180</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1854</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002833</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏新锦绣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>70.43</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1834</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002135</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>66.46</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1830</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001106</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华商健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1718</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003884</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇安沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1351</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008981</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1334</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>159863</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>96.28</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>450008</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国富沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1259</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>900059</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1249</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010202</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1106</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>163114</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>申万菱信中证环保产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010203</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003885</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇安沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>630016</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华商价值共享</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>159861</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国泰中证环保产业50ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>97.55</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>159885</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏华中证内地低碳经济主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>516070</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>易方达中证内地低碳经济主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>97.75</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002137</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>160634</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>鹏华中证环保产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005599</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009750</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>516090</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>易方达中证新能源ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>72.30</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>164304</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>新华中证环保产业指数</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006348</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>银华盛利混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006227</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010285</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>56.82</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>72.92</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>72.92</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>516960</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国泰中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>516850</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华夏中证新能源ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>000928</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中融国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>516360</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华宝中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009855</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>165508</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>信诚深度价值混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>80.61</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009751</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005168</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>信达澳银新征程定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>45.15</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>159886</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>富国中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>97.98</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009856</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006193</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010419</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>申万菱信中证环保产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>161718</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>招商沪深300高贝塔指数</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>163821</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中银沪深300等权重指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>010842</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>006845</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005600</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>006194</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>002834</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华夏新锦绣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>70.43</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>002136</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>66.46</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002129-中环股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002129-中环股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6936,4 +6937,7118 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H187"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>164.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>15.3880</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515790</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>125.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.3975</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011102</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>120.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>9.3848</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011103</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.6032</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009318</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>106.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.6215</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>590002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中邮核心成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>53.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.6947</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011300</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>69.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.6468</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011822</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达产业升级一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>73.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>47.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.2838</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>134.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.7664</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>110010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达价值成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>52.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.2941</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010662</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>67.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.2727</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010966</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国成长领航混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>64.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>72.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.8423</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.99</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.7547</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001224</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中邮新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>30.46</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.7240</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>36.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.6516</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>516880</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.59</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>97.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.3521</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010286</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.2798</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010410</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长城品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>38.69</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>70.29</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.2226</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159790</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏中证内地低碳经济主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>33.73</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.1806</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011037</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国长期成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>78.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27.95</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.1466</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012364</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.0965</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000409</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华环保产业股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>36.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.0812</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9866</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159857</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.9356</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.9180</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>512580</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发中证环保产业ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8056</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009319</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>18.36</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.73</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7932</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>516160</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方中证新能源ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>21.89</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7377</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006392</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7344</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011301</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6912</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002620</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中邮未来新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>76.77</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6851</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>75.60</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6377</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5944</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5695</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>360001</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>光大保德信量化股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>20.68</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5687</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010284</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>15.27</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>77.55</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5299</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011823</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达产业升级一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>47.54</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5155</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159864</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰中证光伏产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4933</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012365</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4928</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>24.18</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>77.72</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4691</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4508</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008980</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4128</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>200007</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长城安心回报混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>19.06</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>71.27</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4098</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3816</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008308</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏见龙精选混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3680</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>516920</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3482</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3460</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009381</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3304</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>762001</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国金国鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>86.15</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3274</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>80.74</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3119</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011966</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2845</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>159902</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华夏中小企业板ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2609</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006348</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>银华盛利混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>83.29</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2590</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005738</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长城智能产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2333</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>159863</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鹏华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2326</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006769</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长城研究精选混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2320</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>515580</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证科技100ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2275</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>501076</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鹏华科创主题3年封闭灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>39.43</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2252</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>159885</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>鹏华中证内地低碳经济主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2144</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008786</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长城健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2012</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>74.55</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1833</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009623</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1801</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>159861</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国泰中证环保产业50ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1736</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>164905</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>交银国证新能源指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1728</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>516180</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>97.31</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1646</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>860009</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1627</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009432</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>69.55</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1606</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008981</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1554</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010202</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1429</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011967</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1403</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>163114</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>申万菱信中证环保产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>530011</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>建信内生动力混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1378</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>159709</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>工银瑞信深证物联网50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>970043</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>34.96</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1368</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010287</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1224</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>516070</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>易方达中证内地低碳经济主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1147</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010203</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>160634</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>鹏华中证环保产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>002135</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>64.85</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1107</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1103</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>229002</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>泰达宏利逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010411</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>长城品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>70.29</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>002833</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华夏新锦绣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>65.43</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>860058</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>11.39</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>010375</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>67.31</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>673081</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>60.20</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>516090</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>易方达中证新能源ETF</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>159752</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>申万菱信中证内地新能源主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>002670</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>159909</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>招商深证TMT50ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>000279</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华商红利优选混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>67.99</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>012552</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001412</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>61.81</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>161118</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>易方达中小板指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>516360</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华宝中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>162205</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>泰达宏利风险预算混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>31.65</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>000507</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>516580</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>博时中证新能源交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>98.27</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>516270</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>华安中证内地新能源主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>164304</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>新华中证环保产业指数</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>001017</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>012553</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>860006</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>005599</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>009762</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>国金国鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>86.15</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>010771</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>天弘国证消费100指数增强A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>011667</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>西藏东财中证高端装备制造指数增强A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>516320</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>华夏中证装备产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>009750</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>516890</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>平安中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>96.05</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>516960</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>国泰中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>163111</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>申万菱信中小板指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>970045</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>34.96</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>159703</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>天弘中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>010772</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>天弘国证消费100指数增强C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>005280</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>安信稳健阿尔法定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>47.73</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>010285</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>77.55</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>006227</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>690006</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>民生加银信用双利债券 - A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>516850</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>华夏中证新能源ETF</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>560006</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>益民核心增长混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>77.72</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>005815</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>农银汇理睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>001229</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>83.69</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>001648</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>工银瑞信新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>008537</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>兴银研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>673083</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>60.20</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>001273</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>民生加银新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>001274</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>民生加银新动力灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>001135</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>益民品质升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>165317</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>建信丰裕多策略灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>516480</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>国联安中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>96.93</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>970044</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>34.96</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>159907</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>广发中小板300ETF</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>63.24</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>63.24</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>009433</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>69.55</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>011668</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>西藏东财中证高端装备制造指数增强C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>010376</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>002671</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>002106</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>83.69</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>161816</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>银华中证等权重90指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>000508</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合B</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>005600</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>159886</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>富国中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>73.81</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>001741</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>001742</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略精选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>009751</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>001397</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>建信精工制造指数增强</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>009382</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>010419</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>申万菱信中证环保产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>008538</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>兴银研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>40.39</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>010921</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>民生加银润利混合</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>002112</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>61.81</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>161718</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>招商沪深300高贝塔指数</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>73.50</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>009904</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强A</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>010842</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>006601</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>69.48</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>290010</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>泰信中证200指数基金</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>410010</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>华富中小板指数增强</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>007799</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>申万菱信中小板指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>690206</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>民生加银信用双利债券 - C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>003550</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>006845</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>40.39</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>009905</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>860055</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H183" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>860056</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>006602</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>69.48</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>002136</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>64.85</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>002834</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>华夏新锦绣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>65.43</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
+        <v>0</v>
+      </c>
+      <c r="H187" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002129-中环股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002129-中环股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14051,4 +14052,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>186</v>
+      </c>
+      <c r="D2" t="n">
+        <v>104.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>93</v>
+      </c>
+      <c r="D3" t="n">
+        <v>54.94</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>36</v>
+      </c>
+      <c r="D4" t="n">
+        <v>35.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>38</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25.84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002129-中环股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002129-中环股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14060,7 +14061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14071,17 +14072,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -14091,14 +14112,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>186</v>
-      </c>
-      <c r="D2" t="n">
-        <v>104.43</v>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>175.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.0777</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -14107,14 +14150,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>93</v>
-      </c>
-      <c r="D3" t="n">
-        <v>54.94</v>
+          <t>515790</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>141.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.9481</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -14123,14 +14188,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>36</v>
-      </c>
-      <c r="D4" t="n">
-        <v>35.23</v>
+          <t>011102</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>136.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8.2145</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -14139,13 +14226,6413 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011103</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>96.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.8063</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>900011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>118.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.4266</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011300</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>63.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.3158</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>900099</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.4331</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009381</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5349</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001224</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>39.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4876</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>35.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4597</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4514</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006392</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>33.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3347</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>110010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达价值成长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>49.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3341</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010286</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.2768</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159790</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏中证内地低碳经济主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>37.98</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.1850</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>25.94</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0013</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008895</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>申万菱信量化对冲策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9862</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>900089</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8642</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>516880</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7949</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>512580</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发中证环保产业ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>29.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7754</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159857</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7355</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>516160</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方中证新能源ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>26.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6841</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011301</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6412</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5688</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5667</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001880</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5307</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5214</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010615</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国金自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4912</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012365</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4896</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013641</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博道成长智航股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4273</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>501080</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中金科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>18.23</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>77.29</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4211</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159864</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国泰中证光伏产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3956</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008980</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3618</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3569</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008308</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏见龙精选混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3353</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>516640</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.28</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3187</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>762001</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国金国鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2850</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013610</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中信保诚前瞻优势混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>19.50</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>35.49</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2847</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009750</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2657</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>200002</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长城久泰沪深300指数 A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>13.97</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2612</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>159709</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>工银瑞信深证物联网50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2549</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010616</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国金自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2479</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>159885</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华中证内地低碳经济主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2455</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011967</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2434</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008318</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博道久航混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>19.29</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2431</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012723</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2384</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>516920</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2296</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159861</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国泰中证环保产业50ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2197</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001015</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华夏沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>15.03</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2179</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012387</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国金ESG持续增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2073</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006348</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>银华盛利混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2027</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>900009</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2026</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013642</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>博道成长智航股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>11.79</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1804</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008981</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1733</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>159863</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鹏华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1718</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005137</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1699</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>516070</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>易方达中证内地低碳经济主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1692</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>515580</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证科技100ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1628</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>516890</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>平安中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>95.98</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1582</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>013445</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>560560</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>泰康中证内地低碳经济主题ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1514</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>13.01</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010375</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1460</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>163114</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>申万菱信中证环保产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1454</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>159763</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>建信中证新材料主题ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>97.50</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1440</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>516270</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华安中证内地新能源主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1401</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>007448</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>长信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1368</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>159752</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>申万菱信中证内地新能源主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1343</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>006912</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>长城久泰沪深300指数 C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1330</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>160634</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>鹏华中证环保产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1330</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011966</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010287</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>003495</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1200</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001106</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华商健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>008856</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华夏安泰对冲策略3个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>80.81</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>012878</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>003884</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>汇安沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1107</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010908</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012027</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>光大保德信安阳一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>13.99</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010202</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>159703</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>天弘中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>004005</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>东方民丰回报赢安混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>516480</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>国联安中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>516710</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华夏中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>516180</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>95.91</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>516090</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>易方达中证新能源ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>007143</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>国投瑞银沪深300指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>013816</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011743</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>26.78</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>013446</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>002837</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>012722</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>003855</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>003854</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>80.95</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>012879</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>012553</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010203</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>012364</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>010909</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>012388</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>国金ESG持续增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>013106</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>华安中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>159909</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>招商深证TMT50ETF</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>003885</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>汇安沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>516320</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>华夏中证装备产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>012028</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>光大保德信安阳一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>001016</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>华夏沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>008251</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>汇安宜创量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>630016</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>华商价值共享</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>007127</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>博道远航混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>516360</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>华宝中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>006160</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>博道启航混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>013105</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>华安中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>164304</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>新华中证环保产业指数</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>004769</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>申万菱信价值优先混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>009762</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>国金国鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>005599</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>007126</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>博道远航混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>007939</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>860006</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>007144</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>国投瑞银沪深300指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>013817</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>516580</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>博时中证新能源交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>97.85</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>560006</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>益民核心增长混合</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>78.89</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>008252</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>汇安宜创量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>012552</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>009918</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>上银核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>006034</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>富国MSCI中国A股国际通指数增强</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>010376</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>003496</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>005550</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>汇安成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>900059</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>516960</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>国泰中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>97.86</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>516850</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>华夏中证新能源ETF</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>009751</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>011744</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>26.78</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>010419</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>申万菱信中证环保产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>003579</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>中金沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>005600</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>159886</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>富国中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>005551</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>汇安成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>008319</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>博道久航混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>59.90</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>006161</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>博道启航混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>001397</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>建信精工制造指数增强</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>009382</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>010000</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>27.57</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>410010</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>华富中小板指数增强</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>009904</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强A</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>003015</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>中金沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>009919</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>上银核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>005405</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>中金金序量化蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>009905</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>004006</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>东方民丰回报赢安混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>860055</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>860056</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>005406</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>中金金序量化蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>169</v>
+      </c>
+      <c r="D2" t="n">
+        <v>80.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>186</v>
+      </c>
+      <c r="D3" t="n">
+        <v>104.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>93</v>
+      </c>
+      <c r="D4" t="n">
+        <v>54.94</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>36</v>
+      </c>
+      <c r="D5" t="n">
+        <v>35.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>38</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>25.84</v>
       </c>
     </row>
